--- a/cuadernos/salidas_notebooks/lognormal_2p.xlsx
+++ b/cuadernos/salidas_notebooks/lognormal_2p.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="normal" sheetId="1" r:id="rId1"/>
+    <sheet name="log_normal2p_gastos_prueba" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -404,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13713</v>
+        <v>80</v>
       </c>
       <c r="C2">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="D2">
-        <v>0.9841269841269842</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="E2">
-        <v>2.147593883556044</v>
+        <v>1.990720461582031</v>
       </c>
       <c r="F2">
-        <v>6340.869147899449</v>
+        <v>58.96910364480055</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -474,10 +474,10 @@
         <v>-0</v>
       </c>
       <c r="J2">
-        <v>1691.807694553529</v>
+        <v>31.0473191985055</v>
       </c>
       <c r="K2">
-        <v>1275.545538832002</v>
+        <v>3.663408102028378</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -485,19 +485,19 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>11800</v>
+        <v>52</v>
       </c>
       <c r="C3">
-        <v>31.5</v>
+        <v>21.5</v>
       </c>
       <c r="D3">
-        <v>0.9682539682539683</v>
+        <v>0.9534883720930233</v>
       </c>
       <c r="E3">
-        <v>1.85572992272011</v>
+        <v>1.679661185315815</v>
       </c>
       <c r="F3">
-        <v>5298.684736028974</v>
+        <v>53.34477929855709</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -509,7 +509,7 @@
         <v>0.8416212335729143</v>
       </c>
       <c r="J3">
-        <v>2839.336019607243</v>
+        <v>40.7200792031138</v>
       </c>
       <c r="K3">
         <v>-999</v>
@@ -520,19 +520,19 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>4235</v>
+        <v>51.3</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>14.33333333333333</v>
       </c>
       <c r="D4">
-        <v>0.9523809523809523</v>
+        <v>0.9302325581395349</v>
       </c>
       <c r="E4">
-        <v>1.668391193947079</v>
+        <v>1.477525292018841</v>
       </c>
       <c r="F4">
-        <v>4721.876233335154</v>
+        <v>49.98078774043422</v>
       </c>
       <c r="G4">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>1.2815515655446</v>
       </c>
       <c r="J4">
-        <v>3721.84367583673</v>
+        <v>46.92201598830778</v>
       </c>
       <c r="K4">
         <v>-999</v>
@@ -555,19 +555,19 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>3992</v>
+        <v>51.3</v>
       </c>
       <c r="C5">
-        <v>15.75</v>
+        <v>10.75</v>
       </c>
       <c r="D5">
-        <v>0.9365079365079365</v>
+        <v>0.9069767441860466</v>
       </c>
       <c r="E5">
-        <v>1.526103353763713</v>
+        <v>1.322365378899721</v>
       </c>
       <c r="F5">
-        <v>4326.113323888902</v>
+        <v>47.54321403189763</v>
       </c>
       <c r="G5">
         <v>20</v>
@@ -579,7 +579,7 @@
         <v>1.644853626951472</v>
       </c>
       <c r="J5">
-        <v>4653.993711996892</v>
+        <v>52.74977612374476</v>
       </c>
       <c r="K5">
         <v>-999</v>
@@ -590,19 +590,19 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>3979</v>
+        <v>49</v>
       </c>
       <c r="C6">
-        <v>12.6</v>
+        <v>8.6</v>
       </c>
       <c r="D6">
-        <v>0.9206349206349207</v>
+        <v>0.8837209302325582</v>
       </c>
       <c r="E6">
-        <v>1.409355218118508</v>
+        <v>1.193795072783103</v>
       </c>
       <c r="F6">
-        <v>4026.288826050354</v>
+        <v>45.6136874143905</v>
       </c>
       <c r="G6">
         <v>50</v>
@@ -614,7 +614,7 @@
         <v>2.053748910631823</v>
       </c>
       <c r="J6">
-        <v>5985.15126797903</v>
+        <v>60.17905020069699</v>
       </c>
       <c r="K6">
         <v>-999</v>
@@ -625,19 +625,19 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>3662</v>
+        <v>48.2</v>
       </c>
       <c r="C7">
-        <v>10.5</v>
+        <v>7.166666666666667</v>
       </c>
       <c r="D7">
-        <v>0.9047619047619048</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="E7">
-        <v>1.309171716785777</v>
+        <v>1.082411394461098</v>
       </c>
       <c r="F7">
-        <v>3785.626186473632</v>
+        <v>44.00551289208984</v>
       </c>
       <c r="G7">
         <v>100</v>
@@ -649,7 +649,7 @@
         <v>2.326347874040841</v>
       </c>
       <c r="J7">
-        <v>7077.967872039955</v>
+        <v>65.70454762086388</v>
       </c>
       <c r="K7">
         <v>-999</v>
@@ -660,19 +660,19 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>3533</v>
+        <v>42</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>6.142857142857143</v>
       </c>
       <c r="D8">
-        <v>0.8888888888888888</v>
+        <v>0.8372093023255814</v>
       </c>
       <c r="E8">
-        <v>1.22064034884735</v>
+        <v>0.9830529168961906</v>
       </c>
       <c r="F8">
-        <v>3584.955468259339</v>
+        <v>42.61886832711191</v>
       </c>
       <c r="G8">
         <v>200</v>
@@ -684,7 +684,7 @@
         <v>2.5758293035489</v>
       </c>
       <c r="J8">
-        <v>8252.118592284918</v>
+        <v>71.20495915571934</v>
       </c>
       <c r="K8">
         <v>-999</v>
@@ -695,19 +695,19 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>3388</v>
+        <v>38.8</v>
       </c>
       <c r="C9">
-        <v>7.875</v>
+        <v>5.375</v>
       </c>
       <c r="D9">
-        <v>0.873015873015873</v>
+        <v>0.813953488372093</v>
       </c>
       <c r="E9">
-        <v>1.140763739234598</v>
+        <v>0.8925596729344507</v>
       </c>
       <c r="F9">
-        <v>3413.04643190057</v>
+        <v>41.39400286518778</v>
       </c>
       <c r="G9">
         <v>500</v>
@@ -719,7 +719,7 @@
         <v>2.878161739095483</v>
       </c>
       <c r="J9">
-        <v>9939.010655827095</v>
+        <v>78.49130106546012</v>
       </c>
       <c r="K9">
         <v>-999</v>
@@ -730,19 +730,19 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>3245</v>
+        <v>38</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>4.777777777777778</v>
       </c>
       <c r="D10">
-        <v>0.8571428571428572</v>
+        <v>0.7906976744186046</v>
       </c>
       <c r="E10">
-        <v>1.067570523878142</v>
+        <v>0.8088444041133956</v>
       </c>
       <c r="F10">
-        <v>3262.768858271892</v>
+        <v>40.29224923941371</v>
       </c>
       <c r="G10">
         <v>1000</v>
@@ -754,7 +754,7 @@
         <v>3.090232306167813</v>
       </c>
       <c r="J10">
-        <v>11324.1217994744</v>
+        <v>84.04283752723606</v>
       </c>
       <c r="K10">
         <v>-999</v>
@@ -765,19 +765,19 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>3205</v>
+        <v>37.4</v>
       </c>
       <c r="C11">
-        <v>6.3</v>
+        <v>4.3</v>
       </c>
       <c r="D11">
-        <v>0.8412698412698413</v>
+        <v>0.7674418604651163</v>
       </c>
       <c r="E11">
-        <v>0.9996904864891372</v>
+        <v>0.7304481769981659</v>
       </c>
       <c r="F11">
-        <v>3129.320206111857</v>
+        <v>39.28710210361689</v>
       </c>
       <c r="G11">
         <v>2000</v>
@@ -789,7 +789,7 @@
         <v>3.290526731491926</v>
       </c>
       <c r="J11">
-        <v>12809.12718582856</v>
+        <v>89.64618665340713</v>
       </c>
       <c r="K11">
         <v>-999</v>
@@ -800,19 +800,19 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2917</v>
+        <v>37.4</v>
       </c>
       <c r="C12">
-        <v>5.727272727272728</v>
+        <v>3.909090909090909</v>
       </c>
       <c r="D12">
-        <v>0.8253968253968254</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="E12">
-        <v>0.9361298239726298</v>
+        <v>0.6563049908667618</v>
       </c>
       <c r="F12">
-        <v>3009.315750585041</v>
+        <v>38.35956649317627</v>
       </c>
       <c r="G12">
         <v>5000</v>
@@ -824,7 +824,7 @@
         <v>3.540083799206175</v>
       </c>
       <c r="J12">
-        <v>14934.70404319946</v>
+        <v>97.15322421564271</v>
       </c>
       <c r="K12">
         <v>-999</v>
@@ -835,19 +835,19 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2747</v>
+        <v>36.7</v>
       </c>
       <c r="C13">
-        <v>5.25</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="D13">
-        <v>0.8095238095238095</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="E13">
-        <v>0.8761428492468408</v>
+        <v>0.585607161223859</v>
       </c>
       <c r="F13">
-        <v>2900.282726526204</v>
+        <v>37.49553559325154</v>
       </c>
       <c r="G13">
         <v>10000</v>
@@ -859,7 +859,7 @@
         <v>3.719016485455709</v>
       </c>
       <c r="J13">
-        <v>16672.63186253155</v>
+        <v>102.9197602394638</v>
       </c>
       <c r="K13">
         <v>-999</v>
@@ -870,19 +870,19 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>2734</v>
+        <v>36.2</v>
       </c>
       <c r="C14">
-        <v>4.846153846153846</v>
+        <v>3.307692307692307</v>
       </c>
       <c r="D14">
-        <v>0.7936507936507936</v>
+        <v>0.6976744186046511</v>
       </c>
       <c r="E14">
-        <v>0.819154251121989</v>
+        <v>0.5177235528176668</v>
       </c>
       <c r="F14">
-        <v>2800.36102918473</v>
+        <v>36.68421934283879</v>
       </c>
       <c r="G14">
         <v>-999</v>
@@ -905,19 +905,19 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>2654</v>
+        <v>35</v>
       </c>
       <c r="C15">
-        <v>4.5</v>
+        <v>3.071428571428572</v>
       </c>
       <c r="D15">
-        <v>0.7777777777777778</v>
+        <v>0.6744186046511629</v>
       </c>
       <c r="E15">
-        <v>0.7647096737863871</v>
+        <v>0.4521474107675363</v>
       </c>
       <c r="F15">
-        <v>2708.117042362614</v>
+        <v>35.91715512541439</v>
       </c>
       <c r="G15">
         <v>-999</v>
@@ -940,19 +940,19 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>2583</v>
+        <v>34</v>
       </c>
       <c r="C16">
-        <v>4.2</v>
+        <v>2.866666666666667</v>
       </c>
       <c r="D16">
-        <v>0.7619047619047619</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="E16">
-        <v>0.7124430323894889</v>
+        <v>0.3884616639831114</v>
       </c>
       <c r="F16">
-        <v>2622.42296767299</v>
+        <v>35.18755890332684</v>
       </c>
       <c r="G16">
         <v>-999</v>
@@ -975,19 +975,19 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>2319</v>
+        <v>33</v>
       </c>
       <c r="C17">
-        <v>3.9375</v>
+        <v>2.6875</v>
       </c>
       <c r="D17">
-        <v>0.746031746031746</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="E17">
-        <v>0.6620541667499952</v>
+        <v>0.3263149920047945</v>
       </c>
       <c r="F17">
-        <v>2542.375863598394</v>
+        <v>34.48988456569927</v>
       </c>
       <c r="G17">
         <v>-999</v>
@@ -1010,19 +1010,19 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>2311</v>
+        <v>33</v>
       </c>
       <c r="C18">
-        <v>3.705882352941177</v>
+        <v>2.529411764705882</v>
       </c>
       <c r="D18">
-        <v>0.7301587301587302</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="E18">
-        <v>0.6132931230857992</v>
+        <v>0.2654047538249755</v>
       </c>
       <c r="F18">
-        <v>2467.241708087095</v>
+        <v>33.81951543944735</v>
       </c>
       <c r="G18">
         <v>-999</v>
@@ -1045,19 +1045,19 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>2310</v>
+        <v>32.1</v>
       </c>
       <c r="C19">
-        <v>3.5</v>
+        <v>2.388888888888889</v>
       </c>
       <c r="D19">
-        <v>0.7142857142857143</v>
+        <v>0.5813953488372092</v>
       </c>
       <c r="E19">
-        <v>0.5659488219328631</v>
+        <v>0.2054644090671237</v>
       </c>
       <c r="F19">
-        <v>2396.415759508944</v>
+        <v>33.17254232832791</v>
       </c>
       <c r="G19">
         <v>-999</v>
@@ -1080,19 +1080,19 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>2248</v>
+        <v>30.6</v>
       </c>
       <c r="C20">
-        <v>3.315789473684211</v>
+        <v>2.263157894736842</v>
       </c>
       <c r="D20">
-        <v>0.6984126984126984</v>
+        <v>0.5581395348837209</v>
       </c>
       <c r="E20">
-        <v>0.5198407089408866</v>
+        <v>0.1462539338043102</v>
       </c>
       <c r="F20">
-        <v>2329.393840392162</v>
+        <v>32.5455996614511</v>
       </c>
       <c r="G20">
         <v>-999</v>
@@ -1115,19 +1115,19 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>2150</v>
+        <v>30</v>
       </c>
       <c r="C21">
-        <v>3.15</v>
+        <v>2.15</v>
       </c>
       <c r="D21">
-        <v>0.6825396825396826</v>
+        <v>0.5348837209302326</v>
       </c>
       <c r="E21">
-        <v>0.4748124827500927</v>
+        <v>0.08755224648617978</v>
       </c>
       <c r="F21">
-        <v>2265.751125988255</v>
+        <v>31.93574145064675</v>
       </c>
       <c r="G21">
         <v>-999</v>
@@ -1150,19 +1150,19 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>2133</v>
+        <v>30</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>2.047619047619047</v>
       </c>
       <c r="D22">
-        <v>0.6666666666666667</v>
+        <v>0.5116279069767442</v>
       </c>
       <c r="E22">
-        <v>0.4307272992954577</v>
+        <v>0.02915096852312123</v>
       </c>
       <c r="F22">
-        <v>2205.126203579535</v>
+        <v>31.34034488968295</v>
       </c>
       <c r="G22">
         <v>-999</v>
@@ -1185,19 +1185,19 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1899</v>
+        <v>30</v>
       </c>
       <c r="C23">
-        <v>2.863636363636364</v>
+        <v>1.954545454545455</v>
       </c>
       <c r="D23">
-        <v>0.6507936507936508</v>
+        <v>0.4883720930232558</v>
       </c>
       <c r="E23">
-        <v>0.387464044551579</v>
+        <v>-0.02915096852312123</v>
       </c>
       <c r="F23">
-        <v>2147.208906176227</v>
+        <v>30.75703323645332</v>
       </c>
       <c r="G23">
         <v>-999</v>
@@ -1220,19 +1220,19 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1899</v>
+        <v>30</v>
       </c>
       <c r="C24">
-        <v>2.739130434782609</v>
+        <v>1.869565217391304</v>
       </c>
       <c r="D24">
-        <v>0.6349206349206349</v>
+        <v>0.4651162790697675</v>
       </c>
       <c r="E24">
-        <v>0.3449143925332651</v>
+        <v>-0.0875522464861795</v>
       </c>
       <c r="F24">
-        <v>2091.730896334046</v>
+        <v>30.1836120167602</v>
       </c>
       <c r="G24">
         <v>-999</v>
@@ -1255,19 +1255,19 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1894</v>
+        <v>29.8</v>
       </c>
       <c r="C25">
-        <v>2.625</v>
+        <v>1.791666666666667</v>
       </c>
       <c r="D25">
-        <v>0.6190476190476191</v>
+        <v>0.4418604651162791</v>
       </c>
       <c r="E25">
-        <v>0.3029804480562066</v>
+        <v>-0.1462539338043102</v>
       </c>
       <c r="F25">
-        <v>2038.458285145639</v>
+        <v>29.6180140922593</v>
       </c>
       <c r="G25">
         <v>-999</v>
@@ -1290,19 +1290,19 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1861</v>
+        <v>29.2</v>
       </c>
       <c r="C26">
-        <v>2.52</v>
+        <v>1.72</v>
       </c>
       <c r="D26">
-        <v>0.6031746031746033</v>
+        <v>0.4186046511627907</v>
       </c>
       <c r="E26">
-        <v>0.261572829651302</v>
+        <v>-0.205464409067124</v>
       </c>
       <c r="F26">
-        <v>1987.185778478853</v>
+        <v>29.05825003924189</v>
       </c>
       <c r="G26">
         <v>-999</v>
@@ -1325,19 +1325,19 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1797</v>
+        <v>29</v>
       </c>
       <c r="C27">
-        <v>2.423076923076923</v>
+        <v>1.653846153846154</v>
       </c>
       <c r="D27">
-        <v>0.5873015873015872</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="E27">
-        <v>0.2206090864634133</v>
+        <v>-0.2654047538249757</v>
       </c>
       <c r="F27">
-        <v>1937.73198375767</v>
+        <v>28.50236074907051</v>
       </c>
       <c r="G27">
         <v>-999</v>
@@ -1360,19 +1360,19 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1771</v>
+        <v>28.4</v>
       </c>
       <c r="C28">
-        <v>2.333333333333333</v>
+        <v>1.592592592592593</v>
       </c>
       <c r="D28">
-        <v>0.5714285714285714</v>
+        <v>0.3720930232558139</v>
       </c>
       <c r="E28">
-        <v>0.180012369792705</v>
+        <v>-0.3263149920047945</v>
       </c>
       <c r="F28">
-        <v>1889.935608596203</v>
+        <v>27.94836925527254</v>
       </c>
       <c r="G28">
         <v>-999</v>
@@ -1395,19 +1395,19 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>1716</v>
+        <v>26.5</v>
       </c>
       <c r="C29">
-        <v>2.25</v>
+        <v>1.535714285714286</v>
       </c>
       <c r="D29">
-        <v>0.5555555555555556</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="E29">
-        <v>0.1397102988818621</v>
+        <v>-0.3884616639831112</v>
       </c>
       <c r="F29">
-        <v>1843.652351691601</v>
+        <v>27.39422851304279</v>
       </c>
       <c r="G29">
         <v>-999</v>
@@ -1430,19 +1430,19 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1652</v>
+        <v>26</v>
       </c>
       <c r="C30">
-        <v>2.172413793103448</v>
+        <v>1.482758620689655</v>
       </c>
       <c r="D30">
-        <v>0.5396825396825398</v>
+        <v>0.3255813953488372</v>
       </c>
       <c r="E30">
-        <v>0.09963397403659792</v>
+        <v>-0.452147410767536</v>
       </c>
       <c r="F30">
-        <v>1798.752335780491</v>
+        <v>26.83776112133733</v>
       </c>
       <c r="G30">
         <v>-999</v>
@@ -1465,19 +1465,19 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1640</v>
+        <v>26</v>
       </c>
       <c r="C31">
-        <v>2.1</v>
+        <v>1.433333333333333</v>
       </c>
       <c r="D31">
-        <v>0.5238095238095238</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="E31">
-        <v>0.05971709978532289</v>
+        <v>-0.5177235528176671</v>
       </c>
       <c r="F31">
-        <v>1755.117968226995</v>
+        <v>26.27658559134802</v>
       </c>
       <c r="G31">
         <v>-999</v>
@@ -1500,19 +1500,19 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1631</v>
+        <v>25.7</v>
       </c>
       <c r="C32">
-        <v>2.032258064516129</v>
+        <v>1.387096774193548</v>
       </c>
       <c r="D32">
-        <v>0.5079365079365079</v>
+        <v>0.2790697674418605</v>
       </c>
       <c r="E32">
-        <v>0.01989518759807956</v>
+        <v>-0.585607161223859</v>
       </c>
       <c r="F32">
-        <v>1712.642140988355</v>
+        <v>25.70802134607667</v>
       </c>
       <c r="G32">
         <v>-999</v>
@@ -1535,19 +1535,19 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1598</v>
+        <v>25.2</v>
       </c>
       <c r="C33">
-        <v>1.96875</v>
+        <v>1.34375</v>
       </c>
       <c r="D33">
-        <v>0.4920634920634921</v>
+        <v>0.2558139534883721</v>
       </c>
       <c r="E33">
-        <v>-0.01989518759807956</v>
+        <v>-0.6563049908667618</v>
       </c>
       <c r="F33">
-        <v>1671.226701042612</v>
+        <v>25.12896045332945</v>
       </c>
       <c r="G33">
         <v>-999</v>
@@ -1570,19 +1570,19 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>1507</v>
+        <v>25.2</v>
       </c>
       <c r="C34">
-        <v>1.909090909090909</v>
+        <v>1.303030303030303</v>
       </c>
       <c r="D34">
-        <v>0.4761904761904762</v>
+        <v>0.2325581395348837</v>
       </c>
       <c r="E34">
-        <v>-0.05971709978532289</v>
+        <v>-0.7304481769981659</v>
       </c>
       <c r="F34">
-        <v>1630.781136747126</v>
+        <v>24.53568672160081</v>
       </c>
       <c r="G34">
         <v>-999</v>
@@ -1605,19 +1605,19 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>1494</v>
+        <v>25.2</v>
       </c>
       <c r="C35">
-        <v>1.852941176470588</v>
+        <v>1.264705882352941</v>
       </c>
       <c r="D35">
-        <v>0.4603174603174603</v>
+        <v>0.2093023255813953</v>
       </c>
       <c r="E35">
-        <v>-0.09963397403659764</v>
+        <v>-0.808844404113396</v>
       </c>
       <c r="F35">
-        <v>1591.221436334421</v>
+        <v>23.92360931965471</v>
       </c>
       <c r="G35">
         <v>-999</v>
@@ -1640,19 +1640,19 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>1397</v>
+        <v>24.3</v>
       </c>
       <c r="C36">
-        <v>1.8</v>
+        <v>1.228571428571429</v>
       </c>
       <c r="D36">
-        <v>0.4444444444444444</v>
+        <v>0.186046511627907</v>
       </c>
       <c r="E36">
-        <v>-0.1397102988818621</v>
+        <v>-0.8925596729344507</v>
       </c>
       <c r="F36">
-        <v>1552.469082755416</v>
+        <v>23.28685226585214</v>
       </c>
       <c r="G36">
         <v>-999</v>
@@ -1675,19 +1675,19 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>1395</v>
+        <v>23.2</v>
       </c>
       <c r="C37">
-        <v>1.75</v>
+        <v>1.194444444444444</v>
       </c>
       <c r="D37">
-        <v>0.4285714285714286</v>
+        <v>0.1627906976744186</v>
       </c>
       <c r="E37">
-        <v>-0.180012369792705</v>
+        <v>-0.9830529168961906</v>
       </c>
       <c r="F37">
-        <v>1514.450154985178</v>
+        <v>22.61758857638841</v>
       </c>
       <c r="G37">
         <v>-999</v>
@@ -1710,19 +1710,19 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>1371</v>
+        <v>23.2</v>
       </c>
       <c r="C38">
-        <v>1.702702702702703</v>
+        <v>1.162162162162162</v>
       </c>
       <c r="D38">
-        <v>0.4126984126984127</v>
+        <v>0.1395348837209301</v>
       </c>
       <c r="E38">
-        <v>-0.2206090864634136</v>
+        <v>-1.082411394461098</v>
       </c>
       <c r="F38">
-        <v>1477.094510150001</v>
+        <v>21.90489250239279</v>
       </c>
       <c r="G38">
         <v>-999</v>
@@ -1745,19 +1745,19 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>1332</v>
+        <v>21.4</v>
       </c>
       <c r="C39">
-        <v>1.657894736842105</v>
+        <v>1.131578947368421</v>
       </c>
       <c r="D39">
-        <v>0.3968253968253969</v>
+        <v>0.1162790697674418</v>
       </c>
       <c r="E39">
-        <v>-0.2615728296513017</v>
+        <v>-1.193795072783103</v>
       </c>
       <c r="F39">
-        <v>1440.33502370447</v>
+        <v>21.13260479594069</v>
       </c>
       <c r="G39">
         <v>-999</v>
@@ -1780,19 +1780,19 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>1288</v>
+        <v>21</v>
       </c>
       <c r="C40">
-        <v>1.615384615384615</v>
+        <v>1.102564102564103</v>
       </c>
       <c r="D40">
-        <v>0.3809523809523809</v>
+        <v>0.09302325581395354</v>
       </c>
       <c r="E40">
-        <v>-0.3029804480562066</v>
+        <v>-1.32236537889972</v>
       </c>
       <c r="F40">
-        <v>1404.106866550881</v>
+        <v>20.27494457499584</v>
       </c>
       <c r="G40">
         <v>-999</v>
@@ -1815,19 +1815,19 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>1244</v>
+        <v>20</v>
       </c>
       <c r="C41">
-        <v>1.575</v>
+        <v>1.075</v>
       </c>
       <c r="D41">
-        <v>0.3650793650793651</v>
+        <v>0.06976744186046513</v>
       </c>
       <c r="E41">
-        <v>-0.3449143925332651</v>
+        <v>-1.477525292018841</v>
       </c>
       <c r="F41">
-        <v>1368.346798513529</v>
+        <v>19.28613119144716</v>
       </c>
       <c r="G41">
         <v>-999</v>
@@ -1850,19 +1850,19 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>1232</v>
+        <v>17.1</v>
       </c>
       <c r="C42">
-        <v>1.536585365853659</v>
+        <v>1.048780487804878</v>
       </c>
       <c r="D42">
-        <v>0.3492063492063492</v>
+        <v>0.04651162790697683</v>
       </c>
       <c r="E42">
-        <v>-0.387464044551579</v>
+        <v>-1.679661185315814</v>
       </c>
       <c r="F42">
-        <v>1332.99245691356</v>
+        <v>18.06992253204358</v>
       </c>
       <c r="G42">
         <v>-999</v>
@@ -1885,19 +1885,19 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>1202</v>
+        <v>14.2</v>
       </c>
       <c r="C43">
-        <v>1.5</v>
+        <v>1.023809523809524</v>
       </c>
       <c r="D43">
-        <v>0.3333333333333334</v>
+        <v>0.0232558139534883</v>
       </c>
       <c r="E43">
-        <v>-0.4307272992954574</v>
+        <v>-1.990720461582034</v>
       </c>
       <c r="F43">
-        <v>1297.981616972468</v>
+        <v>16.34645890533016</v>
       </c>
       <c r="G43">
         <v>-999</v>
@@ -1912,706 +1912,6 @@
         <v>-999</v>
       </c>
       <c r="K43">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>1173</v>
-      </c>
-      <c r="C44">
-        <v>1.465116279069767</v>
-      </c>
-      <c r="D44">
-        <v>0.3174603174603174</v>
-      </c>
-      <c r="E44">
-        <v>-0.4748124827500927</v>
-      </c>
-      <c r="F44">
-        <v>1263.251397084536</v>
-      </c>
-      <c r="G44">
-        <v>-999</v>
-      </c>
-      <c r="H44">
-        <v>-999</v>
-      </c>
-      <c r="I44">
-        <v>-999</v>
-      </c>
-      <c r="J44">
-        <v>-999</v>
-      </c>
-      <c r="K44">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>1157</v>
-      </c>
-      <c r="C45">
-        <v>1.431818181818182</v>
-      </c>
-      <c r="D45">
-        <v>0.3015873015873016</v>
-      </c>
-      <c r="E45">
-        <v>-0.5198407089408866</v>
-      </c>
-      <c r="F45">
-        <v>1228.737376101527</v>
-      </c>
-      <c r="G45">
-        <v>-999</v>
-      </c>
-      <c r="H45">
-        <v>-999</v>
-      </c>
-      <c r="I45">
-        <v>-999</v>
-      </c>
-      <c r="J45">
-        <v>-999</v>
-      </c>
-      <c r="K45">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>1131</v>
-      </c>
-      <c r="C46">
-        <v>1.4</v>
-      </c>
-      <c r="D46">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="E46">
-        <v>-0.5659488219328631</v>
-      </c>
-      <c r="F46">
-        <v>1194.372580798346</v>
-      </c>
-      <c r="G46">
-        <v>-999</v>
-      </c>
-      <c r="H46">
-        <v>-999</v>
-      </c>
-      <c r="I46">
-        <v>-999</v>
-      </c>
-      <c r="J46">
-        <v>-999</v>
-      </c>
-      <c r="K46">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <v>1087</v>
-      </c>
-      <c r="C47">
-        <v>1.369565217391304</v>
-      </c>
-      <c r="D47">
-        <v>0.2698412698412699</v>
-      </c>
-      <c r="E47">
-        <v>-0.6132931230857989</v>
-      </c>
-      <c r="F47">
-        <v>1160.086288250072</v>
-      </c>
-      <c r="G47">
-        <v>-999</v>
-      </c>
-      <c r="H47">
-        <v>-999</v>
-      </c>
-      <c r="I47">
-        <v>-999</v>
-      </c>
-      <c r="J47">
-        <v>-999</v>
-      </c>
-      <c r="K47">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48">
-        <v>1049</v>
-      </c>
-      <c r="C48">
-        <v>1.340425531914894</v>
-      </c>
-      <c r="D48">
-        <v>0.253968253968254</v>
-      </c>
-      <c r="E48">
-        <v>-0.6620541667499952</v>
-      </c>
-      <c r="F48">
-        <v>1125.802567720826</v>
-      </c>
-      <c r="G48">
-        <v>-999</v>
-      </c>
-      <c r="H48">
-        <v>-999</v>
-      </c>
-      <c r="I48">
-        <v>-999</v>
-      </c>
-      <c r="J48">
-        <v>-999</v>
-      </c>
-      <c r="K48">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49">
-        <v>1030</v>
-      </c>
-      <c r="C49">
-        <v>1.3125</v>
-      </c>
-      <c r="D49">
-        <v>0.2380952380952381</v>
-      </c>
-      <c r="E49">
-        <v>-0.7124430323894889</v>
-      </c>
-      <c r="F49">
-        <v>1091.438456203849</v>
-      </c>
-      <c r="G49">
-        <v>-999</v>
-      </c>
-      <c r="H49">
-        <v>-999</v>
-      </c>
-      <c r="I49">
-        <v>-999</v>
-      </c>
-      <c r="J49">
-        <v>-999</v>
-      </c>
-      <c r="K49">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50">
-        <v>1030</v>
-      </c>
-      <c r="C50">
-        <v>1.285714285714286</v>
-      </c>
-      <c r="D50">
-        <v>0.2222222222222223</v>
-      </c>
-      <c r="E50">
-        <v>-0.7647096737863867</v>
-      </c>
-      <c r="F50">
-        <v>1056.901614877575</v>
-      </c>
-      <c r="G50">
-        <v>-999</v>
-      </c>
-      <c r="H50">
-        <v>-999</v>
-      </c>
-      <c r="I50">
-        <v>-999</v>
-      </c>
-      <c r="J50">
-        <v>-999</v>
-      </c>
-      <c r="K50">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51">
-        <v>1014</v>
-      </c>
-      <c r="C51">
-        <v>1.26</v>
-      </c>
-      <c r="D51">
-        <v>0.2063492063492064</v>
-      </c>
-      <c r="E51">
-        <v>-0.819154251121989</v>
-      </c>
-      <c r="F51">
-        <v>1022.087240009836</v>
-      </c>
-      <c r="G51">
-        <v>-999</v>
-      </c>
-      <c r="H51">
-        <v>-999</v>
-      </c>
-      <c r="I51">
-        <v>-999</v>
-      </c>
-      <c r="J51">
-        <v>-999</v>
-      </c>
-      <c r="K51">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52">
-        <v>995</v>
-      </c>
-      <c r="C52">
-        <v>1.235294117647059</v>
-      </c>
-      <c r="D52">
-        <v>0.1904761904761905</v>
-      </c>
-      <c r="E52">
-        <v>-0.8761428492468408</v>
-      </c>
-      <c r="F52">
-        <v>986.8738827330549</v>
-      </c>
-      <c r="G52">
-        <v>-999</v>
-      </c>
-      <c r="H52">
-        <v>-999</v>
-      </c>
-      <c r="I52">
-        <v>-999</v>
-      </c>
-      <c r="J52">
-        <v>-999</v>
-      </c>
-      <c r="K52">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53">
-        <v>954</v>
-      </c>
-      <c r="C53">
-        <v>1.211538461538461</v>
-      </c>
-      <c r="D53">
-        <v>0.1746031746031745</v>
-      </c>
-      <c r="E53">
-        <v>-0.9361298239726303</v>
-      </c>
-      <c r="F53">
-        <v>951.1176335663947</v>
-      </c>
-      <c r="G53">
-        <v>-999</v>
-      </c>
-      <c r="H53">
-        <v>-999</v>
-      </c>
-      <c r="I53">
-        <v>-999</v>
-      </c>
-      <c r="J53">
-        <v>-999</v>
-      </c>
-      <c r="K53">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54">
-        <v>925</v>
-      </c>
-      <c r="C54">
-        <v>1.188679245283019</v>
-      </c>
-      <c r="D54">
-        <v>0.1587301587301587</v>
-      </c>
-      <c r="E54">
-        <v>-0.9996904864891372</v>
-      </c>
-      <c r="F54">
-        <v>914.6437842188076</v>
-      </c>
-      <c r="G54">
-        <v>-999</v>
-      </c>
-      <c r="H54">
-        <v>-999</v>
-      </c>
-      <c r="I54">
-        <v>-999</v>
-      </c>
-      <c r="J54">
-        <v>-999</v>
-      </c>
-      <c r="K54">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55">
-        <v>922</v>
-      </c>
-      <c r="C55">
-        <v>1.166666666666667</v>
-      </c>
-      <c r="D55">
-        <v>0.1428571428571429</v>
-      </c>
-      <c r="E55">
-        <v>-1.067570523878141</v>
-      </c>
-      <c r="F55">
-        <v>877.2344593439822</v>
-      </c>
-      <c r="G55">
-        <v>-999</v>
-      </c>
-      <c r="H55">
-        <v>-999</v>
-      </c>
-      <c r="I55">
-        <v>-999</v>
-      </c>
-      <c r="J55">
-        <v>-999</v>
-      </c>
-      <c r="K55">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56">
-        <v>907</v>
-      </c>
-      <c r="C56">
-        <v>1.145454545454546</v>
-      </c>
-      <c r="D56">
-        <v>0.126984126984127</v>
-      </c>
-      <c r="E56">
-        <v>-1.140763739234598</v>
-      </c>
-      <c r="F56">
-        <v>838.6095332892048</v>
-      </c>
-      <c r="G56">
-        <v>-999</v>
-      </c>
-      <c r="H56">
-        <v>-999</v>
-      </c>
-      <c r="I56">
-        <v>-999</v>
-      </c>
-      <c r="J56">
-        <v>-999</v>
-      </c>
-      <c r="K56">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57">
-        <v>852</v>
-      </c>
-      <c r="C57">
-        <v>1.125</v>
-      </c>
-      <c r="D57">
-        <v>0.1111111111111112</v>
-      </c>
-      <c r="E57">
-        <v>-1.22064034884735</v>
-      </c>
-      <c r="F57">
-        <v>798.3957682855853</v>
-      </c>
-      <c r="G57">
-        <v>-999</v>
-      </c>
-      <c r="H57">
-        <v>-999</v>
-      </c>
-      <c r="I57">
-        <v>-999</v>
-      </c>
-      <c r="J57">
-        <v>-999</v>
-      </c>
-      <c r="K57">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58">
-        <v>832</v>
-      </c>
-      <c r="C58">
-        <v>1.105263157894737</v>
-      </c>
-      <c r="D58">
-        <v>0.09523809523809534</v>
-      </c>
-      <c r="E58">
-        <v>-1.309171716785777</v>
-      </c>
-      <c r="F58">
-        <v>756.0739318576824</v>
-      </c>
-      <c r="G58">
-        <v>-999</v>
-      </c>
-      <c r="H58">
-        <v>-999</v>
-      </c>
-      <c r="I58">
-        <v>-999</v>
-      </c>
-      <c r="J58">
-        <v>-999</v>
-      </c>
-      <c r="K58">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59">
-        <v>751</v>
-      </c>
-      <c r="C59">
-        <v>1.086206896551724</v>
-      </c>
-      <c r="D59">
-        <v>0.07936507936507942</v>
-      </c>
-      <c r="E59">
-        <v>-1.409355218118507</v>
-      </c>
-      <c r="F59">
-        <v>710.8812603884294</v>
-      </c>
-      <c r="G59">
-        <v>-999</v>
-      </c>
-      <c r="H59">
-        <v>-999</v>
-      </c>
-      <c r="I59">
-        <v>-999</v>
-      </c>
-      <c r="J59">
-        <v>-999</v>
-      </c>
-      <c r="K59">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60">
-        <v>743</v>
-      </c>
-      <c r="C60">
-        <v>1.067796610169492</v>
-      </c>
-      <c r="D60">
-        <v>0.06349206349206349</v>
-      </c>
-      <c r="E60">
-        <v>-1.526103353763713</v>
-      </c>
-      <c r="F60">
-        <v>661.6131065141809</v>
-      </c>
-      <c r="G60">
-        <v>-999</v>
-      </c>
-      <c r="H60">
-        <v>-999</v>
-      </c>
-      <c r="I60">
-        <v>-999</v>
-      </c>
-      <c r="J60">
-        <v>-999</v>
-      </c>
-      <c r="K60">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61">
-        <v>720</v>
-      </c>
-      <c r="C61">
-        <v>1.05</v>
-      </c>
-      <c r="D61">
-        <v>0.04761904761904767</v>
-      </c>
-      <c r="E61">
-        <v>-1.668391193947079</v>
-      </c>
-      <c r="F61">
-        <v>606.1601647125104</v>
-      </c>
-      <c r="G61">
-        <v>-999</v>
-      </c>
-      <c r="H61">
-        <v>-999</v>
-      </c>
-      <c r="I61">
-        <v>-999</v>
-      </c>
-      <c r="J61">
-        <v>-999</v>
-      </c>
-      <c r="K61">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62">
-        <v>652</v>
-      </c>
-      <c r="C62">
-        <v>1.032786885245902</v>
-      </c>
-      <c r="D62">
-        <v>0.03174603174603174</v>
-      </c>
-      <c r="E62">
-        <v>-1.85572992272011</v>
-      </c>
-      <c r="F62">
-        <v>540.1742919122173</v>
-      </c>
-      <c r="G62">
-        <v>-999</v>
-      </c>
-      <c r="H62">
-        <v>-999</v>
-      </c>
-      <c r="I62">
-        <v>-999</v>
-      </c>
-      <c r="J62">
-        <v>-999</v>
-      </c>
-      <c r="K62">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63">
-        <v>632</v>
-      </c>
-      <c r="C63">
-        <v>1.016129032258065</v>
-      </c>
-      <c r="D63">
-        <v>0.01587301587301582</v>
-      </c>
-      <c r="E63">
-        <v>-2.147593883556044</v>
-      </c>
-      <c r="F63">
-        <v>451.3913169614446</v>
-      </c>
-      <c r="G63">
-        <v>-999</v>
-      </c>
-      <c r="H63">
-        <v>-999</v>
-      </c>
-      <c r="I63">
-        <v>-999</v>
-      </c>
-      <c r="J63">
-        <v>-999</v>
-      </c>
-      <c r="K63">
         <v>-999</v>
       </c>
     </row>
